--- a/Trabajo 7. Modelo de conversores DCDC/Tablas.xlsx
+++ b/Trabajo 7. Modelo de conversores DCDC/Tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Modelo 1</t>
+  </si>
+  <si>
+    <t>Modelo 2</t>
+  </si>
+  <si>
+    <t>Modelo 3</t>
   </si>
 </sst>
 </file>
@@ -93,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -103,6 +112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:O25"/>
+  <dimension ref="D5:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,11 +419,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
@@ -495,11 +507,11 @@
       </c>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="2" t="s">
         <v>3</v>
       </c>
@@ -520,10 +532,10 @@
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2" t="s">
         <v>3</v>
       </c>
@@ -608,11 +620,11 @@
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
         <v>3</v>
       </c>
@@ -633,11 +645,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +748,72 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.9552997840525999E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.2815033765924999E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.05753122325603E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="L5:N5"/>
